--- a/data/trans_bre/P2C_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>4.577388417417206</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5.622112288255178</v>
+        <v>5.622112288255181</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6214235104755511</v>
@@ -649,7 +649,7 @@
         <v>0.09051007566670283</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.455830645625333</v>
+        <v>0.4558306456253332</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>9.310236592771854</v>
+        <v>9.329860591577161</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>10.42679774233154</v>
+        <v>9.787915628059341</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.9438580967353049</v>
+        <v>-0.8050116039750227</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.289257285747944</v>
+        <v>1.060384583568064</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3036651899062256</v>
+        <v>0.3139677295515996</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1953389174880438</v>
+        <v>0.1853411482643724</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.01449657875278544</v>
+        <v>-0.01491891352266286</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.08378452811470666</v>
+        <v>0.05417303612518915</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>21.94206293446592</v>
+        <v>21.77118218084459</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>20.22604051970432</v>
+        <v>19.94295726918302</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.751877837599345</v>
+        <v>9.873568922273529</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.56800311756872</v>
+        <v>9.419608049806387</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.000395673371201</v>
+        <v>0.9850895555972847</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4352945009184805</v>
+        <v>0.4267655174452699</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2078541327639922</v>
+        <v>0.2083257887369615</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.9731783464054568</v>
+        <v>0.9039559731058885</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.140558395178862</v>
+        <v>5.505554841716469</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.006178360656142</v>
+        <v>5.118387591248492</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.555152348065758</v>
+        <v>2.991801210881003</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08782155792380554</v>
+        <v>0.490986390066712</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.125851471041363</v>
+        <v>0.1295478386266469</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09314996234451225</v>
+        <v>0.0947097899040777</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05698530799858469</v>
+        <v>0.0645994012321876</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.001879603222777666</v>
+        <v>0.02472330547445233</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>15.98594481083082</v>
+        <v>15.74861744525273</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>15.41127815993142</v>
+        <v>16.16070111363157</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14.10542258265069</v>
+        <v>14.50708628499551</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.494921839959061</v>
+        <v>6.766485507491361</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4409200293124704</v>
+        <v>0.4310751965342978</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3277671688086829</v>
+        <v>0.3386953829350451</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3603019935367887</v>
+        <v>0.3724377790211573</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5667515781674515</v>
+        <v>0.5900062163504078</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2700665122236359</v>
+        <v>-0.6783533306367584</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.852424349470761</v>
+        <v>5.272291908412</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.502232424336006</v>
+        <v>-4.291209597071162</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.05070474837515</v>
+        <v>1.948013708296751</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.005510863583755866</v>
+        <v>-0.0125854030764176</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1153479794948002</v>
+        <v>0.1046861621047937</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.0750578483555244</v>
+        <v>-0.09238695557776018</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.2132286416699827</v>
+        <v>0.2062257028144798</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.75530988645163</v>
+        <v>10.33337503504156</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.89608238000761</v>
+        <v>17.36048322266788</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.914584016505106</v>
+        <v>9.165411557522365</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.348881765426958</v>
+        <v>7.507608622907647</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2730297549457572</v>
+        <v>0.2559150483862069</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4184959847806208</v>
+        <v>0.4035214326601708</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2197504211979021</v>
+        <v>0.2204901525579047</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.08525882052143</v>
+        <v>1.101652560031934</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>0.4343690100790619</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3945433101588585</v>
+        <v>0.3945433101588582</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.404688452125487</v>
+        <v>2.160856199730513</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1669117812529517</v>
+        <v>2.113478779337756</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.822383730892179</v>
+        <v>5.776281136055406</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.5939374952455598</v>
+        <v>-0.6696068791077636</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.09112177921834715</v>
+        <v>0.05174497266215772</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.003119872343365981</v>
+        <v>0.03982440192792799</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1598086716223118</v>
+        <v>0.1525223905329207</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1354503577925165</v>
+        <v>-0.1711528185101582</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>21.40607113410374</v>
+        <v>21.53573977782051</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>18.26412174869998</v>
+        <v>18.2425239145086</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>23.48876252647298</v>
+        <v>23.01970720515081</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.920507748943762</v>
+        <v>3.083522381631283</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7592963895218314</v>
+        <v>0.7680733750193629</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3768902279563136</v>
+        <v>0.3941832870427331</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7428614984491098</v>
+        <v>0.7527596903792576</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.175909019289855</v>
+        <v>1.223898568353778</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>7.018207312786501</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.07913379355863</v>
+        <v>4.079133793558628</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2496747283629415</v>
@@ -1049,7 +1049,7 @@
         <v>0.1581825744258333</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4598413017562133</v>
+        <v>0.4598413017562131</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.411915034742222</v>
+        <v>6.32759618270917</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>9.114407081990413</v>
+        <v>9.018071617851556</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.597779113949363</v>
+        <v>3.647226317043092</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.616943476428149</v>
+        <v>2.616357023992219</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1657076033285197</v>
+        <v>0.1644380373274604</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.176763458796812</v>
+        <v>0.1757766802492456</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07843048062092629</v>
+        <v>0.08232119043137608</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.2635432169996006</v>
+        <v>0.2681396590073661</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.38036518220518</v>
+        <v>12.66216573502377</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.05180039679915</v>
+        <v>15.0343366060923</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.06781169376051</v>
+        <v>10.00372215939172</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.565066134126597</v>
+        <v>5.62535188455626</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3502077959525685</v>
+        <v>0.3668849928950144</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.315646631523985</v>
+        <v>0.3153004705472704</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.237157449038562</v>
+        <v>0.2379683014705282</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.6948427685385141</v>
+        <v>0.6841644326966847</v>
       </c>
     </row>
     <row r="19">
